--- a/SAaP/Docs/Overview.xlsx
+++ b/SAaP/Docs/Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Source\repos\SAaP\SAaP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191F74DB-B4AD-421B-90E9-38DC21DD93DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97FAA0E-3FDF-4B78-BA28-C055FEB7411A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,6 +271,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,15 +297,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,16 +1040,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>282314</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>86445</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>221354</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>109306</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1063,8 +1063,8 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8374380" y="2148840"/>
+        <a:xfrm rot="1834016">
+          <a:off x="8686800" y="2354581"/>
           <a:ext cx="320414" cy="1381845"/>
         </a:xfrm>
         <a:custGeom>
@@ -1758,7 +1758,7 @@
   <dimension ref="E6:AE38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1769,15 +1769,15 @@
   </cols>
   <sheetData>
     <row r="6" spans="5:31" x14ac:dyDescent="0.3">
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1802,11 +1802,11 @@
       <c r="AE6" s="11"/>
     </row>
     <row r="7" spans="5:31" x14ac:dyDescent="0.3">
-      <c r="E7" s="16"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1831,41 +1831,41 @@
       <c r="AE7" s="14"/>
     </row>
     <row r="8" spans="5:31" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="22"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="16"/>
     </row>
     <row r="9" spans="5:31" x14ac:dyDescent="0.3">
       <c r="E9" s="5"/>
